--- a/console/Networking/iaas-network/componentsMixinsXlsx/acl/aclRuleList.xlsx
+++ b/console/Networking/iaas-network/componentsMixinsXlsx/acl/aclRuleList.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\18. ACL国际化内容翻译确认\4. 确认后-柴玉梅\2. 客户确认后-上传Github版\ACL国际化内容翻译确认-CT-C-GTCOM Comment1106-R\acl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -396,18 +401,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'优先级重复性判断'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>aclRuleList_i18nKey_18</t>
     </r>
   </si>
@@ -744,103 +737,155 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>‘Priority Level Repeatability Judgment’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘Priority Level Repeated’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘Priority Level Repeatability Judgment’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Repeated’</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘Delete ACL Rules</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Original List Length</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘Current List Length</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘The Length of List to be Deleted</t>
-    </r>
-  </si>
-  <si>
     <t>Add new rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘Priority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> level repeatability judgment’</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">‘Priority </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>level repeated’</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">‘Priority </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>level repeatability judgment’</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘Delete ACL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rules</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Original </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list length</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">‘Current </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list length</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e length of list to be deleted</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优先级重复性判断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -850,6 +895,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -876,8 +936,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1219,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1229,263 +1295,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B23" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B15 A17:B23 A16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>